--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704409.3141379507</v>
+        <v>-707150.7465801546</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11390440.55724542</v>
+        <v>11392513.19767915</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13675829.28293997</v>
+        <v>13678134.53144917</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>397.0937486160015</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.20414671909174</v>
+        <v>413.1975712664897</v>
       </c>
       <c r="H2" t="n">
-        <v>317.9826091257885</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>129.3164677695056</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>161.0485936952392</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>307.0975031338172</v>
+        <v>256.1956845844596</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.0372894523739</v>
+        <v>76.49411243093839</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2206720971956</v>
+        <v>136.2171539198906</v>
       </c>
       <c r="H3" t="n">
-        <v>101.3911247831405</v>
+        <v>101.3571465970637</v>
       </c>
       <c r="I3" t="n">
-        <v>50.73727421887894</v>
+        <v>50.61614399149347</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.44294487847985</v>
+        <v>30.22450927352843</v>
       </c>
       <c r="S3" t="n">
-        <v>150.8268164785142</v>
+        <v>150.7614678781349</v>
       </c>
       <c r="T3" t="n">
-        <v>195.6388751173311</v>
+        <v>195.6246943938958</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8675106950528</v>
+        <v>225.8672792360196</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>137.1917678116509</v>
+        <v>167.0466742522529</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>7.089367494763792</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>134.8339999654033</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.9234337488977</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>260.62996381058</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>31.15121256404307</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>120.6608067381593</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>87.10509000261429</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,7 +990,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>29.36682762385502</v>
       </c>
       <c r="I6" t="n">
         <v>45.44580843958667</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>45.7330574133578</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>194.1000177984478</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>179.6422978376131</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>310.5792390133838</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>96.79735940624755</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>5.893968999542471</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>252.4246002310148</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>129.1380851356412</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>74.5703325417651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039642</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="15">
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4021082756247</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>152.8697920431067</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.83802857056354</v>
+        <v>110.1270172505048</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462222</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>124.199737531646</v>
+        <v>28.75188085812039</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578126</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>80.33989744908978</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656053</v>
       </c>
     </row>
     <row r="30">
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>80.33989744908982</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>40.15381658332852</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>164.2607468869785</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>151.675587803669</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>115.7275571083583</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>130.8627293516103</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>129.8498147279724</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>149.95290499731</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652613</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>50.80401341516287</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>165.4550527066858</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>201.8342170323294</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>270.6132410942853</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>236.5664100288692</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>270.9517650416322</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>210.1384220940783</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>203.013420057136</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,19 +3667,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002294</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898978</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1530.937610965808</v>
+        <v>1754.280621386843</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.937610965808</v>
+        <v>1754.280621386843</v>
       </c>
       <c r="D2" t="n">
-        <v>1172.671912359057</v>
+        <v>1396.014922780093</v>
       </c>
       <c r="E2" t="n">
-        <v>786.8836597608131</v>
+        <v>1010.226670181848</v>
       </c>
       <c r="F2" t="n">
-        <v>385.7788631789933</v>
+        <v>599.2407653922407</v>
       </c>
       <c r="G2" t="n">
-        <v>372.4413412405168</v>
+        <v>181.8694812846754</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800315</v>
+        <v>181.8694812846754</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>215.7511079768612</v>
+        <v>216.3036104639414</v>
       </c>
       <c r="K2" t="n">
-        <v>262.1412882248034</v>
+        <v>584.4258071639749</v>
       </c>
       <c r="L2" t="n">
-        <v>770.0787731856013</v>
+        <v>1093.390571303906</v>
       </c>
       <c r="M2" t="n">
-        <v>906.8452415951846</v>
+        <v>1312.711199126048</v>
       </c>
       <c r="N2" t="n">
-        <v>1483.411997995273</v>
+        <v>1457.466042060223</v>
       </c>
       <c r="O2" t="n">
-        <v>1959.449930560117</v>
+        <v>1957.810853681552</v>
       </c>
       <c r="P2" t="n">
-        <v>2347.872165764597</v>
+        <v>2347.169191606487</v>
       </c>
       <c r="Q2" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400157</v>
+        <v>2399.663981233247</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400157</v>
+        <v>2399.663981233247</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400157</v>
+        <v>2399.663981233247</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056586</v>
+        <v>2399.663981233247</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056586</v>
+        <v>2399.663981233247</v>
       </c>
       <c r="X2" t="n">
-        <v>1921.07694294162</v>
+        <v>2140.880461450965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1530.937610965808</v>
+        <v>2140.880461450965</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>971.667926467957</v>
+        <v>971.5076975883941</v>
       </c>
       <c r="C3" t="n">
-        <v>797.2148971868301</v>
+        <v>797.0546683072671</v>
       </c>
       <c r="D3" t="n">
-        <v>648.2804875255788</v>
+        <v>648.1202586460158</v>
       </c>
       <c r="E3" t="n">
-        <v>489.0430325201232</v>
+        <v>488.8828036405604</v>
       </c>
       <c r="F3" t="n">
-        <v>342.5084745470082</v>
+        <v>342.3482456674453</v>
       </c>
       <c r="G3" t="n">
-        <v>204.9118360649925</v>
+        <v>204.755160899879</v>
       </c>
       <c r="H3" t="n">
-        <v>102.4965585062647</v>
+        <v>102.3742047412288</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>155.5310537486928</v>
+        <v>155.8601204449767</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3903196289941</v>
+        <v>461.2818137221996</v>
       </c>
       <c r="L3" t="n">
-        <v>931.7156208620139</v>
+        <v>933.3633679982322</v>
       </c>
       <c r="M3" t="n">
-        <v>1199.189188900331</v>
+        <v>1536.239496830264</v>
       </c>
       <c r="N3" t="n">
-        <v>1832.822799248172</v>
+        <v>1696.23002566591</v>
       </c>
       <c r="O3" t="n">
-        <v>1956.134388007637</v>
+        <v>2210.294003748895</v>
       </c>
       <c r="P3" t="n">
-        <v>2351.047884039067</v>
+        <v>2350.603282714677</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2531.588879027955</v>
+        <v>2531.809521053157</v>
       </c>
       <c r="S3" t="n">
-        <v>2379.238559352689</v>
+        <v>2379.525210065142</v>
       </c>
       <c r="T3" t="n">
-        <v>2181.623533981647</v>
+        <v>2181.924508657166</v>
       </c>
       <c r="U3" t="n">
-        <v>1953.474533279574</v>
+        <v>1953.775741752096</v>
       </c>
       <c r="V3" t="n">
-        <v>1718.322425047831</v>
+        <v>1718.623633520353</v>
       </c>
       <c r="W3" t="n">
-        <v>1464.085068319629</v>
+        <v>1464.386276792152</v>
       </c>
       <c r="X3" t="n">
-        <v>1256.233568114097</v>
+        <v>1256.534776586619</v>
       </c>
       <c r="Y3" t="n">
-        <v>1048.473269349143</v>
+        <v>1048.774477821665</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2108.164490887092</v>
+        <v>536.8300774745181</v>
       </c>
       <c r="C4" t="n">
-        <v>2108.164490887092</v>
+        <v>367.8938945466113</v>
       </c>
       <c r="D4" t="n">
-        <v>1958.047851474756</v>
+        <v>367.8938945466113</v>
       </c>
       <c r="E4" t="n">
-        <v>1958.047851474756</v>
+        <v>219.9808009642181</v>
       </c>
       <c r="F4" t="n">
-        <v>1811.157903976846</v>
+        <v>219.9808009642181</v>
       </c>
       <c r="G4" t="n">
-        <v>1672.580360732754</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1672.580360732754</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>1672.580360732754</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1672.580360732754</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K4" t="n">
-        <v>1758.808283158535</v>
+        <v>137.8139629761794</v>
       </c>
       <c r="L4" t="n">
-        <v>1924.676771231858</v>
+        <v>304.1165793459111</v>
       </c>
       <c r="M4" t="n">
-        <v>2109.950958521568</v>
+        <v>489.8484940549052</v>
       </c>
       <c r="N4" t="n">
-        <v>2296.254356167552</v>
+        <v>676.5987353852139</v>
       </c>
       <c r="O4" t="n">
-        <v>2452.319402457833</v>
+        <v>833.0765141417145</v>
       </c>
       <c r="P4" t="n">
-        <v>2562.339328400157</v>
+        <v>943.4496040106263</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400157</v>
+        <v>936.2886267431882</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400157</v>
+        <v>800.0926671821748</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400157</v>
+        <v>800.0926671821748</v>
       </c>
       <c r="T4" t="n">
-        <v>2336.154041785109</v>
+        <v>800.0926671821748</v>
       </c>
       <c r="U4" t="n">
-        <v>2336.154041785109</v>
+        <v>536.8300774745181</v>
       </c>
       <c r="V4" t="n">
-        <v>2336.154041785109</v>
+        <v>536.8300774745181</v>
       </c>
       <c r="W4" t="n">
-        <v>2336.154041785109</v>
+        <v>536.8300774745181</v>
       </c>
       <c r="X4" t="n">
-        <v>2108.164490887092</v>
+        <v>536.8300774745181</v>
       </c>
       <c r="Y4" t="n">
-        <v>2108.164490887092</v>
+        <v>536.8300774745181</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>999.0134437210725</v>
+        <v>999.1797858325554</v>
       </c>
       <c r="C5" t="n">
-        <v>999.0134437210725</v>
+        <v>999.1797858325554</v>
       </c>
       <c r="D5" t="n">
-        <v>999.0134437210725</v>
+        <v>999.1797858325554</v>
       </c>
       <c r="E5" t="n">
-        <v>999.0134437210725</v>
+        <v>613.3915332343111</v>
       </c>
       <c r="F5" t="n">
-        <v>588.0275389314648</v>
+        <v>202.4056284447035</v>
       </c>
       <c r="G5" t="n">
         <v>170.9397571678923</v>
@@ -4562,55 +4562,55 @@
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817395</v>
+        <v>239.8866855817394</v>
       </c>
       <c r="K5" t="n">
-        <v>643.353798601785</v>
+        <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>782.6824544430382</v>
+        <v>959.6534908014927</v>
       </c>
       <c r="M5" t="n">
-        <v>969.3818672684458</v>
+        <v>1146.3529036269</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518885</v>
+        <v>1340.687116518883</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.848321285962</v>
+        <v>1887.84832128596</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625256</v>
+        <v>2317.163367625255</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896985</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164697</v>
+        <v>2347.539466667867</v>
       </c>
       <c r="U5" t="n">
-        <v>2191.324429164697</v>
+        <v>2093.847763413018</v>
       </c>
       <c r="V5" t="n">
-        <v>1860.261541821126</v>
+        <v>1762.784876069447</v>
       </c>
       <c r="W5" t="n">
-        <v>1507.492886551012</v>
+        <v>1762.784876069447</v>
       </c>
       <c r="X5" t="n">
-        <v>1385.613283785194</v>
+        <v>1389.319117808367</v>
       </c>
       <c r="Y5" t="n">
-        <v>1385.613283785194</v>
+        <v>999.1797858325554</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857335</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046065</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433552</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>126.8151058240048</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768666</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>146.2780729269301</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307087</v>
+        <v>475.7064772327399</v>
       </c>
       <c r="L6" t="n">
-        <v>980.0680170988603</v>
+        <v>980.0680170988585</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.565353453465</v>
+        <v>1159.565353453463</v>
       </c>
       <c r="N6" t="n">
-        <v>1358.22209510613</v>
+        <v>1358.222095106128</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858853</v>
+        <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.62587233969</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802344</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664979</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825067</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.632556336232</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.48044810449</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376288</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170755</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405802</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.8536315726197</v>
+        <v>97.44179405624331</v>
       </c>
       <c r="C7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
-        <v>152.294716163613</v>
+        <v>152.2947161636129</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1277110644314</v>
+        <v>337.1277110644313</v>
       </c>
       <c r="M7" t="n">
-        <v>542.3973117836694</v>
+        <v>542.3973117836692</v>
       </c>
       <c r="N7" t="n">
-        <v>748.2206766197737</v>
+        <v>748.2206766197735</v>
       </c>
       <c r="O7" t="n">
-        <v>922.3155720083726</v>
+        <v>922.3155720083723</v>
       </c>
       <c r="P7" t="n">
         <v>1047.763148606988</v>
@@ -4753,22 +4753,22 @@
         <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>825.552271339713</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>825.552271339713</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>825.552271339713</v>
+        <v>796.496979821461</v>
       </c>
       <c r="W7" t="n">
-        <v>629.4916473008768</v>
+        <v>507.0798097845004</v>
       </c>
       <c r="X7" t="n">
-        <v>401.5020964028595</v>
+        <v>279.090258886483</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.5020964028595</v>
+        <v>279.090258886483</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1852.996172847235</v>
+        <v>1591.095540256643</v>
       </c>
       <c r="C8" t="n">
-        <v>1484.033655906823</v>
+        <v>1591.095540256643</v>
       </c>
       <c r="D8" t="n">
-        <v>1125.767957300073</v>
+        <v>1232.829841649892</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>847.0415890516479</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4802,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847235</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X8" t="n">
-        <v>1852.996172847235</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y8" t="n">
-        <v>1852.996172847235</v>
+        <v>1977.695380320764</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>815.114548125109</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2362.9309660677</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>606.597376495349</v>
+        <v>614.0149486813318</v>
       </c>
       <c r="C10" t="n">
-        <v>606.597376495349</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D10" t="n">
-        <v>606.597376495349</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6842829129558</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>311.7943354150455</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>896.0145465323095</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W10" t="n">
-        <v>606.597376495349</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X10" t="n">
-        <v>606.597376495349</v>
+        <v>1016.455992655102</v>
       </c>
       <c r="Y10" t="n">
-        <v>606.597376495349</v>
+        <v>795.6634135115715</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1250.836169983545</v>
+        <v>1363.124011696103</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.836169983545</v>
+        <v>1363.124011696103</v>
       </c>
       <c r="D11" t="n">
-        <v>892.5704713767946</v>
+        <v>1004.858313089352</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>619.0700604911081</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>619.0700604911081</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>3084.872642898244</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2753.809755554673</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W11" t="n">
-        <v>2401.041100284559</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X11" t="n">
-        <v>2027.575342023478</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y11" t="n">
-        <v>1637.436010047667</v>
+        <v>1749.723851760225</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>752.7622949738579</v>
+        <v>994.2880032601527</v>
       </c>
       <c r="C13" t="n">
-        <v>752.7622949738579</v>
+        <v>825.3518203322458</v>
       </c>
       <c r="D13" t="n">
-        <v>602.6456555615222</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
         <v>527.322087337517</v>
@@ -5191,10 +5191,10 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5206,7 +5206,7 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5233,16 +5233,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1672.610059882606</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.192889845645</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X13" t="n">
-        <v>1155.203338947628</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.4107598040977</v>
+        <v>1175.936468090392</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684177</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098246</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819177</v>
+        <v>847.6442739835327</v>
       </c>
       <c r="D16" t="n">
-        <v>664.302781469582</v>
+        <v>697.527634571197</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871889</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892785</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1936.428221820187</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681612</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1419.021500885209</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804942</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>615.6449305525873</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402516</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578584</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578584</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578584</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1135.896109690899</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>915.103530547369</v>
       </c>
     </row>
     <row r="20">
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
         <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1055.185257670615</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5902,58 +5902,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1236.833722500855</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5972,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,28 +6212,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,31 +6242,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,7 +6297,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
         <v>95.58405025273905</v>
@@ -6315,13 +6315,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958737</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>633.9926444679668</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>483.876005055631</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>483.876005055631</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908938</v>
@@ -6376,58 +6376,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261134</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958737</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>633.9926444679668</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>483.876005055631</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261134</v>
       </c>
     </row>
     <row r="32">
@@ -6689,52 +6689,52 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459584</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180515</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>449.4852666057158</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>301.5721730233226</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761981</v>
       </c>
     </row>
     <row r="35">
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>778.734434753952</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>625.5267703058014</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>508.6302479741263</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>376.4456728714896</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>245.2842438533356</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>189.4682024403049</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>466.5729859278528</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>872.3871010658021</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1309.812324758846</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1742.637717380863</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2127.582519051858</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2435.673495587425</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2570.287251276334</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2518.970066008493</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2351.843750143154</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2147.970803645851</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1874.624095469805</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1635.668125743675</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1361.97947418647</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1149.718441768209</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>944.6543811044353</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,25 +7424,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311324</v>
@@ -7582,37 +7582,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>82.233447868957</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>357.3556679649895</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>127.806024191747</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>60.61497424672541</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8219,13 +8219,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>178.7586225842976</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>178.7586225842993</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.2244035242788</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>346.9737134873309</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>98.24448441976892</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.94186588374689</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>62.63359754465189</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>158.4971254224386</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8570868232608</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>71.86363010480407</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>239.1104512034316</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>32.89260457059919</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>99.26785128072135</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.99395161137376</v>
+        <v>69.70496293143253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>43.04708356698187</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.9259388694756296</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>65.08115057384147</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>66.09406519747935</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>105.2672314396027</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>17.31668261489526</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>124.7234795512651</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>65.69460302360672</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.050271108981156e-13</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1256130.09085583</v>
+        <v>1263131.270236722</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1177071.953165644</v>
+        <v>1177071.953165645</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1197219.949918347</v>
+        <v>1189990.780089743</v>
       </c>
     </row>
     <row r="14">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244816.8406499185</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="C2" t="n">
+        <v>246312.530959285</v>
+      </c>
+      <c r="D2" t="n">
         <v>246312.5309592851</v>
       </c>
-      <c r="D2" t="n">
-        <v>246312.530959285</v>
-      </c>
       <c r="E2" t="n">
-        <v>204598.2593825523</v>
+        <v>204598.2593825524</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
@@ -26341,19 +26341,19 @@
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592849</v>
+        <v>244816.8406499188</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592851</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>717704.2671588486</v>
+        <v>719280.3948213921</v>
       </c>
       <c r="C3" t="n">
-        <v>65064.00612545741</v>
+        <v>63574.58557823802</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
-        <v>317694.1318125476</v>
+        <v>317694.1318125473</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>66979.98378704664</v>
+        <v>60009.25242938197</v>
       </c>
       <c r="N3" t="n">
-        <v>83595.25861206539</v>
+        <v>90565.98996972993</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209638.3622618925</v>
+        <v>212159.5683373369</v>
       </c>
       <c r="C4" t="n">
-        <v>198312.6346601522</v>
+        <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
@@ -26427,37 +26427,37 @@
         <v>7330.627242042245</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.368461719655</v>
-      </c>
       <c r="H4" t="n">
-        <v>7507.36846171964</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719642</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719612</v>
+        <v>7507.368461719705</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481311</v>
+        <v>12631.08021638267</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481308</v>
+        <v>15498.22772481317</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481311</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481308</v>
+        <v>15498.22772481319</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83955.29103092628</v>
+        <v>83990.948066524</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905221</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>102431.587835781</v>
       </c>
       <c r="N5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766481.0798017489</v>
+        <v>-769118.3802659682</v>
       </c>
       <c r="C6" t="n">
-        <v>-102577.0466053767</v>
+        <v>-101087.6260581575</v>
       </c>
       <c r="D6" t="n">
         <v>-271424.1145503306</v>
       </c>
       <c r="E6" t="n">
-        <v>-59111.68823807371</v>
+        <v>-59459.30716787998</v>
       </c>
       <c r="F6" t="n">
-        <v>-184180.0501911727</v>
+        <v>-184214.788116608</v>
       </c>
       <c r="G6" t="n">
-        <v>133514.0816213752</v>
+        <v>133479.3436959395</v>
       </c>
       <c r="H6" t="n">
-        <v>133514.0816213751</v>
+        <v>133479.3436959392</v>
       </c>
       <c r="I6" t="n">
-        <v>133514.0816213751</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="J6" t="n">
-        <v>-34091.09618860765</v>
+        <v>-34125.8341140433</v>
       </c>
       <c r="K6" t="n">
-        <v>133514.0816213751</v>
+        <v>133479.3436959392</v>
       </c>
       <c r="L6" t="n">
-        <v>133514.0816213752</v>
+        <v>133479.3436959393</v>
       </c>
       <c r="M6" t="n">
-        <v>60670.20359350972</v>
+        <v>69732.45608246174</v>
       </c>
       <c r="N6" t="n">
-        <v>44054.92876849094</v>
+        <v>37084.19741082651</v>
       </c>
       <c r="O6" t="n">
         <v>127650.1873805565</v>
       </c>
       <c r="P6" t="n">
-        <v>127650.1873805563</v>
+        <v>127650.1873805565</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>522.0244605157745</v>
+        <v>523.6601043505337</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203977</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.713414197080926</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>522.0244605157745</v>
+        <v>523.6601043505337</v>
       </c>
       <c r="C3" t="n">
-        <v>71.45163982229055</v>
+        <v>69.81599598753135</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.5887917794741</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.396785092909727e-14</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.782297125709931</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>317.9152682718279</v>
       </c>
       <c r="I2" t="n">
-        <v>129.569967905946</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.0435138491938</v>
+        <v>17.63046857468046</v>
       </c>
       <c r="S2" t="n">
-        <v>161.1984318214083</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.9092683544517</v>
+        <v>213.8804843106863</v>
       </c>
       <c r="U2" t="n">
-        <v>251.177765644153</v>
+        <v>251.1772396079449</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>113.5354160940095</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.49589419749344</v>
+        <v>90.03907121892895</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>29.85785596227117</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8576655831047</v>
+        <v>153.8314416540818</v>
       </c>
       <c r="I4" t="n">
-        <v>127.1413451668291</v>
+        <v>127.0526450060851</v>
       </c>
       <c r="J4" t="n">
-        <v>26.80534028993215</v>
+        <v>26.59680910791704</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.336349713812439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.9666211851855</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.6113375319109</v>
+        <v>207.5599354133661</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.91083124722</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2676826882434</v>
+        <v>25.63755799466327</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>381.7656913818937</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>249.0702939403097</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>70.53999045278665</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.53999045278843</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>121.51376368527</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27825,16 +27825,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>92.42298053814321</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>202.2880722346487</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>96.29680672832768</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>70.44946169238028</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.4126310452617</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>6.107776353646526e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>15.57123329495882</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.098590796043313</v>
+        <v>2.10516624864536</v>
       </c>
       <c r="H2" t="n">
-        <v>21.49219298997859</v>
+        <v>21.5595338439393</v>
       </c>
       <c r="I2" t="n">
-        <v>80.90592166445991</v>
+        <v>81.15942180090033</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1152705756813</v>
+        <v>178.6733538959643</v>
       </c>
       <c r="K2" t="n">
-        <v>266.9486189721948</v>
+        <v>267.7850412011225</v>
       </c>
       <c r="L2" t="n">
-        <v>331.1733670466054</v>
+        <v>332.211022783103</v>
       </c>
       <c r="M2" t="n">
-        <v>368.4941811157407</v>
+        <v>369.6487730574499</v>
       </c>
       <c r="N2" t="n">
-        <v>374.4568022149988</v>
+        <v>375.6300766614135</v>
       </c>
       <c r="O2" t="n">
-        <v>353.5889399868431</v>
+        <v>354.6968297764462</v>
       </c>
       <c r="P2" t="n">
-        <v>301.7799797095237</v>
+        <v>302.7255380130138</v>
       </c>
       <c r="Q2" t="n">
-        <v>226.6241968262225</v>
+        <v>227.3342717334018</v>
       </c>
       <c r="R2" t="n">
-        <v>131.8256040919559</v>
+        <v>132.2386493664692</v>
       </c>
       <c r="S2" t="n">
-        <v>47.82163776483704</v>
+        <v>47.97147589100619</v>
       </c>
       <c r="T2" t="n">
-        <v>9.186581209679607</v>
+        <v>9.21536525344507</v>
       </c>
       <c r="U2" t="n">
-        <v>0.167887263683465</v>
+        <v>0.1684132998916288</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.122845066015062</v>
+        <v>1.126363243320016</v>
       </c>
       <c r="H3" t="n">
-        <v>10.844319453356</v>
+        <v>10.87829763943279</v>
       </c>
       <c r="I3" t="n">
-        <v>38.65935863253614</v>
+        <v>38.78048885992161</v>
       </c>
       <c r="J3" t="n">
-        <v>106.084234943116</v>
+        <v>106.4166255454231</v>
       </c>
       <c r="K3" t="n">
-        <v>181.3148543661252</v>
+        <v>181.8829628478642</v>
       </c>
       <c r="L3" t="n">
-        <v>243.8001973380511</v>
+        <v>244.5640893006903</v>
       </c>
       <c r="M3" t="n">
-        <v>284.5033309810971</v>
+        <v>285.3947568710408</v>
       </c>
       <c r="N3" t="n">
-        <v>292.0332875860841</v>
+        <v>292.9483068668142</v>
       </c>
       <c r="O3" t="n">
-        <v>267.1534048075398</v>
+        <v>267.9904686858812</v>
       </c>
       <c r="P3" t="n">
-        <v>214.4141600182622</v>
+        <v>215.0859775774862</v>
       </c>
       <c r="Q3" t="n">
-        <v>143.3301877250104</v>
+        <v>143.7792799718673</v>
       </c>
       <c r="R3" t="n">
-        <v>69.71488927416328</v>
+        <v>69.93332487911471</v>
       </c>
       <c r="S3" t="n">
-        <v>20.85635462532362</v>
+        <v>20.92170322570291</v>
       </c>
       <c r="T3" t="n">
-        <v>4.525853577490534</v>
+        <v>4.540034300925853</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07387138592204359</v>
+        <v>0.07410284495526424</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9413555845366425</v>
+        <v>0.9443051062058804</v>
       </c>
       <c r="H4" t="n">
-        <v>8.369506924334882</v>
+        <v>8.395730853357742</v>
       </c>
       <c r="I4" t="n">
-        <v>28.30912976042922</v>
+        <v>28.39782992117321</v>
       </c>
       <c r="J4" t="n">
-        <v>66.55383982674063</v>
+        <v>66.76237100875574</v>
       </c>
       <c r="K4" t="n">
-        <v>109.3684033670753</v>
+        <v>109.7110841573741</v>
       </c>
       <c r="L4" t="n">
-        <v>139.953902086475</v>
+        <v>140.3924155171906</v>
       </c>
       <c r="M4" t="n">
-        <v>147.5617667651393</v>
+        <v>148.024117693709</v>
       </c>
       <c r="N4" t="n">
-        <v>144.0530777682301</v>
+        <v>144.5044350251236</v>
       </c>
       <c r="O4" t="n">
-        <v>133.0563329852338</v>
+        <v>133.473234466264</v>
       </c>
       <c r="P4" t="n">
-        <v>113.8526790606862</v>
+        <v>114.2094102996639</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.82569353788195</v>
+        <v>79.07267575693059</v>
       </c>
       <c r="R4" t="n">
-        <v>42.32677019198393</v>
+        <v>42.45939141176621</v>
       </c>
       <c r="S4" t="n">
-        <v>16.4052605050613</v>
+        <v>16.45666262360611</v>
       </c>
       <c r="T4" t="n">
-        <v>4.022155679383835</v>
+        <v>4.034758181061488</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05134666824745329</v>
+        <v>0.05150755124759353</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704897</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>324.9782573297443</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>428.6149474293395</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>369.1789913099994</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>752.2150000824574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>548.8125296967487</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>152.5685698206127</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>549.9198891312099</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>166.1659812210688</v>
+        <v>166.7240645413518</v>
       </c>
       <c r="K2" t="n">
-        <v>46.85876792721427</v>
+        <v>371.8406027273066</v>
       </c>
       <c r="L2" t="n">
-        <v>513.0681666270686</v>
+        <v>514.1058223635662</v>
       </c>
       <c r="M2" t="n">
-        <v>138.1479478884679</v>
+        <v>221.5359876991342</v>
       </c>
       <c r="N2" t="n">
-        <v>582.390663030392</v>
+        <v>146.2170130648226</v>
       </c>
       <c r="O2" t="n">
-        <v>480.8463965301459</v>
+        <v>505.3987996175048</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3456921257368</v>
+        <v>393.2912504292269</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.6334976116777</v>
+        <v>217.343572518857</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>105.3376436168582</v>
+        <v>105.6700342191652</v>
       </c>
       <c r="K3" t="n">
-        <v>307.9386524043448</v>
+        <v>308.5067608860838</v>
       </c>
       <c r="L3" t="n">
-        <v>476.0861628616361</v>
+        <v>476.8500548242753</v>
       </c>
       <c r="M3" t="n">
-        <v>270.1753212508257</v>
+        <v>608.9657866990224</v>
       </c>
       <c r="N3" t="n">
-        <v>640.0339498463043</v>
+        <v>161.6065947834809</v>
       </c>
       <c r="O3" t="n">
-        <v>124.5571603630954</v>
+        <v>519.2565435181663</v>
       </c>
       <c r="P3" t="n">
-        <v>398.9025212438692</v>
+        <v>141.7265444098814</v>
       </c>
       <c r="Q3" t="n">
-        <v>213.425701374838</v>
+        <v>213.8747936216949</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>87.09891154119249</v>
+        <v>87.44159233149124</v>
       </c>
       <c r="L4" t="n">
-        <v>167.5439273467912</v>
+        <v>167.9824407775068</v>
       </c>
       <c r="M4" t="n">
-        <v>187.1456437269799</v>
+        <v>187.6079946555496</v>
       </c>
       <c r="N4" t="n">
-        <v>188.1852501474587</v>
+        <v>188.6366074043522</v>
       </c>
       <c r="O4" t="n">
-        <v>157.6414608992735</v>
+        <v>158.0583623803036</v>
       </c>
       <c r="P4" t="n">
-        <v>111.1312383255797</v>
+        <v>111.4879695645574</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,13 +34939,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>319.4946385855635</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>375.0558073236754</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>95.99119834235047</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>485.589469058739</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
         <v>181.3104407622271</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>395.9248450576191</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.4225882146015</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561594</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>187.1368183553853</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>290.0605676494653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>226.582746865555</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902925</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>620.8732879991242</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>414.8381222824185</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>96.61771655791217</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>279.9038217045937</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>409.9132476140902</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>441.8436602960039</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>437.1973662848662</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>388.8331330010042</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>311.2030066015838</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>135.9734905948572</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>25.73094315394595</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>407.3236446867654</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,19 +38099,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
